--- a/PM_16_03_2019/Progress Monitoring Kishoregonj/Netrokona_Breakup/Netrokona_PW_07.xlsx
+++ b/PM_16_03_2019/Progress Monitoring Kishoregonj/Netrokona_Breakup/Netrokona_PW_07.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Office Work\Progress Monitoring Kishoregonj\Netrokona_Breakup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\PM_16_03_2019\Progress Monitoring Kishoregonj\Netrokona_Breakup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946F232-629B-475F-9EE1-F5F5300B9D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="River Excavation" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="River Excavation_appendix" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Sl No</t>
   </si>
@@ -114,12 +114,30 @@
   </si>
   <si>
     <t>16-340</t>
+  </si>
+  <si>
+    <t>Analyzed Item</t>
+  </si>
+  <si>
+    <t>Dredging</t>
+  </si>
+  <si>
+    <t>Ring Bundh Construction</t>
+  </si>
+  <si>
+    <t>Excavation by Mech Excavator</t>
+  </si>
+  <si>
+    <t>Excavation by Manual Labour</t>
+  </si>
+  <si>
+    <t>Additional Lift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -157,12 +175,18 @@
       <name val="ArialRegular"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -255,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,9 +311,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -300,19 +321,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,23 +458,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,23 +493,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,21 +668,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
@@ -683,28 +701,28 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="31" customHeight="1">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="30.95" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.5">
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -715,7 +733,7 @@
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>290.48099999999999</v>
       </c>
       <c r="F3" s="10">
@@ -725,15 +743,15 @@
         <f>E3*F3</f>
         <v>348577.2</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="16">
         <v>722</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="17">
         <f>H3*E3</f>
         <v>209727.28200000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -744,7 +762,7 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>140.501</v>
       </c>
       <c r="F4" s="10">
@@ -757,12 +775,12 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f t="shared" ref="I4:I17" si="1">H4*E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -773,7 +791,7 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>142.001</v>
       </c>
       <c r="F5" s="10">
@@ -786,12 +804,12 @@
       <c r="H5" s="10">
         <v>1229.06</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <f t="shared" si="1"/>
         <v>174527.74906</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -804,7 +822,7 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>6.0010000000000003</v>
       </c>
       <c r="F6" s="10">
@@ -817,7 +835,7 @@
       <c r="H6" s="2">
         <v>64121.95</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <f t="shared" si="1"/>
         <v>384795.82195000001</v>
       </c>
@@ -833,7 +851,7 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>90.001000000000005</v>
       </c>
       <c r="F7" s="10">
@@ -846,7 +864,7 @@
       <c r="H7" s="2">
         <v>128257.45</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="17">
         <f t="shared" si="1"/>
         <v>11543298.757449999</v>
       </c>
@@ -862,7 +880,7 @@
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>120.001</v>
       </c>
       <c r="F8" s="10">
@@ -875,7 +893,7 @@
       <c r="H8" s="2">
         <v>64128.72</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>7695510.5287200008</v>
       </c>
@@ -893,7 +911,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>142.001</v>
       </c>
       <c r="F9" s="10">
@@ -906,7 +924,7 @@
       <c r="H9" s="2">
         <v>21376.240000000002</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="17">
         <f t="shared" si="1"/>
         <v>3035447.4562400002</v>
       </c>
@@ -922,7 +940,7 @@
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>10.000999999999999</v>
       </c>
       <c r="F10" s="10">
@@ -935,7 +953,7 @@
       <c r="H10" s="2">
         <v>64128.72</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <f t="shared" si="1"/>
         <v>641351.32871999999</v>
       </c>
@@ -953,7 +971,7 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>142.471</v>
       </c>
       <c r="F11" s="10">
@@ -966,7 +984,7 @@
       <c r="H11" s="2">
         <v>1423.13</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>202754.75423000002</v>
       </c>
@@ -995,12 +1013,12 @@
       <c r="H12" s="2">
         <v>77</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.5">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1024,12 +1042,12 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.5">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1053,12 +1071,12 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.5">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1082,12 +1100,12 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1111,12 +1129,12 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1140,33 +1158,33 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5">
-      <c r="G18" s="17">
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="G18" s="15">
         <f>SUM(G3:G17)</f>
         <v>65480263.277419999</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <f>SUM(I3:I17)</f>
         <v>23887413.678370003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.5">
-      <c r="G19" s="17">
+    <row r="19" spans="1:9" ht="15.75">
+      <c r="G19" s="15">
         <f>G18/100000</f>
         <v>654.80263277419999</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <f>I18/100000</f>
         <v>238.87413678370004</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
+  <sortState ref="A2:H12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <mergeCells count="3">
@@ -1180,26 +1198,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">
@@ -1314,4 +1332,414 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24">
+        <v>290.48099999999999</v>
+      </c>
+      <c r="F3" s="25">
+        <v>800</v>
+      </c>
+      <c r="G3" s="26">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="27">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="24">
+        <v>140.501</v>
+      </c>
+      <c r="F4" s="25">
+        <v>370400.29</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="27">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="24">
+        <v>142.001</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1394.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="27">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="24">
+        <v>6.0010000000000003</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>64121.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A7" s="27">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24">
+        <v>90.001000000000005</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>97367.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="24">
+        <v>120.001</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>253155.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="27">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="24">
+        <v>142.001</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <v>38947.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="30">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>38947.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A11" s="27">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="24">
+        <v>142.471</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1257.991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="F18">
+        <f>SUMPRODUCT(E3:E11,F3:F11)</f>
+        <v>52273995.945289999</v>
+      </c>
+      <c r="G18">
+        <f>SUMPRODUCT(E3:E11,G3:G11)</f>
+        <v>46090591.106780998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="F19">
+        <f>F18/10^5</f>
+        <v>522.73995945289994</v>
+      </c>
+      <c r="G19">
+        <f>G18/10^5</f>
+        <v>460.90591106781</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>